--- a/testing/RSP_testdata - Manual_check.xlsx
+++ b/testing/RSP_testdata - Manual_check.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="217">
   <si>
     <t>Υγείας</t>
   </si>
@@ -4418,11 +4418,20 @@
   <si>
     <t>Πρόβλημα με INTOSAI</t>
   </si>
+  <si>
+    <t>Σωστή Μονάδα - Σωστές αρμοδιότητες</t>
+  </si>
+  <si>
+    <t>Πλήθος αρμοδιοτήτων - Λάθος Μονάδα</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4452,7 +4461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4467,10 +4476,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4776,24 +4788,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.140625" customWidth="1"/>
-    <col min="5" max="5" width="182.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" customWidth="1"/>
     <col min="6" max="6" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="4"/>
     <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -4818,8 +4832,14 @@
       <c r="H1" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4847,8 +4867,16 @@
       <c r="I2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" t="b">
+        <f>IF(AND(F2=G2,H2="ok"),TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <f>IF(AND(H2="-", G2&gt;0), G2, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4873,8 +4901,16 @@
       <c r="H3" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" t="b">
+        <f>IF(AND(F3=G3,H3="ok"),TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K66" si="0">IF(AND(H3="-", G3&gt;0), G3, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4899,8 +4935,16 @@
       <c r="H4" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" t="b">
+        <f t="shared" ref="J4:J67" si="1">IF(AND(F4=G4,H4="ok"),TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4925,8 +4969,16 @@
       <c r="H5" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4951,11 +5003,19 @@
       <c r="H6" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4980,9 +5040,17 @@
       <c r="H7" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="5"/>
+      <c r="J7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -5007,9 +5075,17 @@
       <c r="H8" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="5"/>
+      <c r="J8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -5034,9 +5110,17 @@
       <c r="H9" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="5"/>
+      <c r="J9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -5061,8 +5145,16 @@
       <c r="H10" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -5087,8 +5179,16 @@
       <c r="H11" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -5113,8 +5213,16 @@
       <c r="H12" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -5139,8 +5247,16 @@
       <c r="H13" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -5165,8 +5281,16 @@
       <c r="H14" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -5191,8 +5315,16 @@
       <c r="H15" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -5217,8 +5349,16 @@
       <c r="H16" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -5243,8 +5383,16 @@
       <c r="H17" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -5269,8 +5417,16 @@
       <c r="H18" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -5295,8 +5451,16 @@
       <c r="H19" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5321,8 +5485,16 @@
       <c r="H20" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -5347,8 +5519,16 @@
       <c r="H21" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -5367,14 +5547,22 @@
       <c r="F22" s="3">
         <v>8</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>205</v>
+      <c r="G22" s="3">
+        <v>8</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="J22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -5399,8 +5587,16 @@
       <c r="H23" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5425,8 +5621,16 @@
       <c r="H24" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -5451,11 +5655,19 @@
       <c r="H25" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -5480,9 +5692,17 @@
       <c r="H26" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="5"/>
+      <c r="J26" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -5501,14 +5721,22 @@
       <c r="F27" s="3">
         <v>16</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>205</v>
+      <c r="G27" s="3">
+        <v>11</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -5527,14 +5755,22 @@
       <c r="F28" s="3">
         <v>15</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>205</v>
+      <c r="G28" s="3">
+        <v>11</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -5553,14 +5789,22 @@
       <c r="F29" s="3">
         <v>14</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>205</v>
+      <c r="G29" s="3">
+        <v>8</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -5585,8 +5829,16 @@
       <c r="H30" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -5611,8 +5863,16 @@
       <c r="H31" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -5637,8 +5897,16 @@
       <c r="H32" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -5663,8 +5931,16 @@
       <c r="H33" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -5689,8 +5965,16 @@
       <c r="H34" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -5715,8 +5999,16 @@
       <c r="H35" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -5741,11 +6033,19 @@
       <c r="H36" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -5764,15 +6064,23 @@
       <c r="F37" s="3">
         <v>5</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>205</v>
+      <c r="G37" s="3">
+        <v>2</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="5"/>
+      <c r="J37" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -5791,15 +6099,23 @@
       <c r="F38" s="3">
         <v>7</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>205</v>
+      <c r="G38" s="3">
+        <v>5</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="5"/>
+      <c r="J38" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -5824,9 +6140,17 @@
       <c r="H39" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="5"/>
+      <c r="J39" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -5851,11 +6175,19 @@
       <c r="H40" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J40" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -5880,9 +6212,17 @@
       <c r="H41" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="6"/>
+      <c r="J41" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -5907,11 +6247,19 @@
       <c r="H42" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -5930,15 +6278,23 @@
       <c r="F43" s="3">
         <v>13</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>205</v>
+      <c r="G43" s="3">
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="5"/>
+      <c r="J43" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -5957,15 +6313,23 @@
       <c r="F44" s="3">
         <v>11</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>205</v>
+      <c r="G44" s="3">
+        <v>9</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="5"/>
+      <c r="J44" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -5990,11 +6354,19 @@
       <c r="H45" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="6" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -6019,9 +6391,17 @@
       <c r="H46" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="6"/>
+      <c r="J46" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -6046,11 +6426,19 @@
       <c r="H47" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="5" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J47" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -6075,9 +6463,17 @@
       <c r="H48" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="5"/>
+      <c r="J48" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -6102,9 +6498,17 @@
       <c r="H49" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="5"/>
+      <c r="J49" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -6129,9 +6533,17 @@
       <c r="H50" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="5"/>
+      <c r="J50" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -6156,9 +6568,17 @@
       <c r="H51" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="5"/>
+      <c r="J51" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -6183,8 +6603,16 @@
       <c r="H52" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J52" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -6209,8 +6637,16 @@
       <c r="H53" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J53" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -6235,8 +6671,16 @@
       <c r="H54" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J54" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -6255,14 +6699,22 @@
       <c r="F55" s="3">
         <v>5</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>205</v>
+      <c r="G55" s="3">
+        <v>5</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="J55" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -6287,8 +6739,16 @@
       <c r="H56" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J56" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -6313,8 +6773,16 @@
       <c r="H57" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -6339,8 +6807,16 @@
       <c r="H58" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J58" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -6365,8 +6841,16 @@
       <c r="H59" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J59" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -6391,8 +6875,16 @@
       <c r="H60" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J60" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -6417,8 +6909,16 @@
       <c r="H61" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J61" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -6446,8 +6946,16 @@
       <c r="I62" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J62" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>95</v>
       </c>
@@ -6472,8 +6980,16 @@
       <c r="H63" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J63" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K63" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -6498,8 +7014,16 @@
       <c r="H64" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J64" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K64" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -6524,8 +7048,16 @@
       <c r="H65" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J65" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K65" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>95</v>
       </c>
@@ -6550,8 +7082,16 @@
       <c r="H66" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J66" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K66" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>95</v>
       </c>
@@ -6576,8 +7116,16 @@
       <c r="H67" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J67" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="3">
+        <f t="shared" ref="K67:K106" si="2">IF(AND(H67="-", G67&gt;0), G67, 0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>95</v>
       </c>
@@ -6602,8 +7150,16 @@
       <c r="H68" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J68" t="b">
+        <f t="shared" ref="J68:J106" si="3">IF(AND(F68=G68,H68="ok"),TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K68" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>95</v>
       </c>
@@ -6628,8 +7184,16 @@
       <c r="H69" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J69" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K69" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -6654,8 +7218,16 @@
       <c r="H70" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J70" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>107</v>
       </c>
@@ -6680,8 +7252,16 @@
       <c r="H71" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J71" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K71" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>107</v>
       </c>
@@ -6706,8 +7286,16 @@
       <c r="H72" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J72" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K72" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -6732,11 +7320,19 @@
       <c r="H73" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="I73" s="5" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J73" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -6761,9 +7357,17 @@
       <c r="H74" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="5"/>
+      <c r="J74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>115</v>
       </c>
@@ -6788,8 +7392,16 @@
       <c r="H75" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J75" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K75" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -6814,8 +7426,16 @@
       <c r="H76" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J76" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K76" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -6840,8 +7460,16 @@
       <c r="H77" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J77" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K77" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>115</v>
       </c>
@@ -6866,8 +7494,16 @@
       <c r="H78" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J78" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K78" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>115</v>
       </c>
@@ -6892,8 +7528,16 @@
       <c r="H79" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J79" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K79" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -6918,8 +7562,16 @@
       <c r="H80" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J80" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K80" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -6944,8 +7596,16 @@
       <c r="H81" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J81" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K81" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>115</v>
       </c>
@@ -6970,8 +7630,16 @@
       <c r="H82" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J82" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K82" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -6996,8 +7664,16 @@
       <c r="H83" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J83" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K83" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>115</v>
       </c>
@@ -7022,8 +7698,16 @@
       <c r="H84" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J84" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K84" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>129</v>
       </c>
@@ -7048,8 +7732,16 @@
       <c r="H85" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J85" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>129</v>
       </c>
@@ -7074,8 +7766,16 @@
       <c r="H86" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J86" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -7100,8 +7800,16 @@
       <c r="H87" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J87" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>129</v>
       </c>
@@ -7126,8 +7834,16 @@
       <c r="H88" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J88" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>137</v>
       </c>
@@ -7146,14 +7862,22 @@
       <c r="F89" s="3">
         <v>21</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>205</v>
+      <c r="G89" s="3">
+        <v>21</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J89" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -7172,14 +7896,22 @@
       <c r="F90" s="3">
         <v>7</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>205</v>
+      <c r="G90" s="3">
+        <v>7</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J90" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>137</v>
       </c>
@@ -7198,14 +7930,22 @@
       <c r="F91" s="3">
         <v>11</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>205</v>
+      <c r="G91" s="3">
+        <v>11</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>137</v>
       </c>
@@ -7224,14 +7964,22 @@
       <c r="F92" s="3">
         <v>5</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>205</v>
+      <c r="G92" s="3">
+        <v>5</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J92" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>145</v>
       </c>
@@ -7256,9 +8004,16 @@
       <c r="H93" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J93" s="3"/>
-    </row>
-    <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J93" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K93" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>145</v>
       </c>
@@ -7283,9 +8038,16 @@
       <c r="H94" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J94" s="3"/>
-    </row>
-    <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J94" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K94" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>145</v>
       </c>
@@ -7310,9 +8072,16 @@
       <c r="H95" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J95" s="3"/>
-    </row>
-    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J95" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K95" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>145</v>
       </c>
@@ -7337,9 +8106,16 @@
       <c r="H96" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J96" s="3"/>
-    </row>
-    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J96" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K96" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>145</v>
       </c>
@@ -7364,9 +8140,16 @@
       <c r="H97" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J97" s="3"/>
-    </row>
-    <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J97" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K97" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>145</v>
       </c>
@@ -7391,9 +8174,16 @@
       <c r="H98" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J98" s="3"/>
-    </row>
-    <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J98" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>145</v>
       </c>
@@ -7418,9 +8208,16 @@
       <c r="H99" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J99" s="3"/>
-    </row>
-    <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J99" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K99" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>145</v>
       </c>
@@ -7445,12 +8242,19 @@
       <c r="H100" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I100" s="6" t="s">
+      <c r="I100" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="J100" s="3"/>
-    </row>
-    <row r="101" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J100" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>145</v>
       </c>
@@ -7475,10 +8279,17 @@
       <c r="H101" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I101" s="6"/>
-      <c r="J101" s="3"/>
-    </row>
-    <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I101" s="5"/>
+      <c r="J101" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>159</v>
       </c>
@@ -7503,9 +8314,16 @@
       <c r="H102" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J102" s="3"/>
-    </row>
-    <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J102" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K102" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>159</v>
       </c>
@@ -7530,9 +8348,16 @@
       <c r="H103" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J103" s="3"/>
-    </row>
-    <row r="104" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J103" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K103" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>159</v>
       </c>
@@ -7560,9 +8385,16 @@
       <c r="I104" t="s">
         <v>206</v>
       </c>
-      <c r="J104" s="3"/>
-    </row>
-    <row r="105" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J104" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>159</v>
       </c>
@@ -7587,9 +8419,16 @@
       <c r="H105" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J105" s="3"/>
-    </row>
-    <row r="106" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J105" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K105" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>159</v>
       </c>
@@ -7614,23 +8453,56 @@
       <c r="H106" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J106" s="3"/>
-    </row>
-    <row r="107" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J106" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K106" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F107" s="3">
         <f>SUM(F2:F106)</f>
         <v>1055</v>
       </c>
       <c r="G107" s="3">
         <f>SUM(G2:G106)</f>
-        <v>631</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>735</v>
+      </c>
+      <c r="H107" s="4">
+        <f>COUNTIF(H2:H106, "ok")</f>
+        <v>52</v>
+      </c>
+      <c r="J107" s="3">
+        <f>COUNTIF(J2:J106, TRUE)</f>
+        <v>46</v>
+      </c>
+      <c r="K107" s="3">
+        <f>COUNTA(K2:K106)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K108" s="3">
+        <f>K107/F107</f>
+        <v>9.9526066350710901E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G109" s="7">
+        <f>(G107/F107)*100%</f>
+        <v>0.69668246445497628</v>
+      </c>
+      <c r="H109" s="4">
+        <f>(H107/105)*100%</f>
+        <v>0.49523809523809526</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
